--- a/LeaguerManagement.APIs/Contents/Templates/Mau 4-TW.xlsx
+++ b/LeaguerManagement.APIs/Contents/Templates/Mau 4-TW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LeaguerManagement\LeaguerManagement.APIs\Contents\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D008A4-C215-4ECC-BA22-2451F90B9FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562A707-1BD2-4928-833F-5F4F669D93FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DB4AED-9FCD-4D47-B5A4-F6173290FA01}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DB4AED-9FCD-4D47-B5A4-F6173290FA01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t xml:space="preserve">        ĐẢNG ỦY KHỐI CÁC CƠ QUAN TPĐN</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>Chơ - Ro</t>
-  </si>
-  <si>
-    <t>Đà Nẵng, ngày 30 tháng 12 năm 2020</t>
   </si>
   <si>
     <t xml:space="preserve">     T/M ĐẢNG ỦY</t>
@@ -680,13 +677,146 @@
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -695,10 +825,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -706,149 +832,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,843 +1163,834 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A162133-B0CC-489C-94E1-8C7B9D4FF7F6}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
         <v>100</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="13">
         <v>33</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="32">
-        <v>126</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="27">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="13">
         <v>34</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="27">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="13">
         <v>35</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="27">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="13">
         <v>36</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="27">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="13">
         <v>37</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="17">
         <v>5</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="27">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="13">
         <v>38</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="17">
         <v>6</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="27">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="13">
         <v>39</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="27">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="13">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="17">
         <v>8</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="27">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="13">
         <v>41</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="17">
         <v>9</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="27">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="13">
         <v>42</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="17">
         <v>10</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="27">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="13">
         <v>43</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="17">
         <v>11</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="27">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="13">
         <v>44</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="17">
         <v>12</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="27">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="13">
         <v>45</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="17">
         <v>13</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="27">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="13">
         <v>46</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="17">
         <v>14</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="27">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="13">
         <v>47</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
+      <c r="A22" s="17">
         <v>15</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="27">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="13">
         <v>48</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
+      <c r="A23" s="17">
         <v>16</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="13">
         <v>49</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+      <c r="A24" s="17">
         <v>17</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="27">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="13">
         <v>50</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+      <c r="A25" s="17">
         <v>18</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="27">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="13">
         <v>51</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="17">
         <v>19</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="27">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="13">
         <v>52</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+      <c r="A27" s="17">
         <v>20</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="27">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="13">
         <v>53</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+      <c r="A28" s="17">
         <v>21</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="27">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="13">
         <v>54</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+      <c r="A29" s="17">
         <v>22</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="27">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="13">
         <v>55</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="17">
         <v>23</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="27">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="13">
         <v>56</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+      <c r="A31" s="17">
         <v>24</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="36">
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+      <c r="A32" s="17">
         <v>25</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="27">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="13">
         <v>1</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
+      <c r="A33" s="17">
         <v>26</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="27">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="13">
         <v>2</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
+      <c r="A34" s="17">
         <v>27</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="27">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="13">
         <v>3</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="41"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
+      <c r="A35" s="17">
         <v>28</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="27">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="13">
         <v>4</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="A36" s="17">
         <v>29</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="27">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="13">
         <v>5</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="31">
+      <c r="A37" s="17">
         <v>30</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="27">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="13">
         <v>6</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
+      <c r="A38" s="17">
         <v>31</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="27">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="13">
         <v>7</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+      <c r="A39" s="29">
         <v>32</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="48"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="36"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G41:J41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="G42:J42"/>
     <mergeCell ref="A1:E1"/>
@@ -2015,6 +2003,11 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
